--- a/SSW695/product backlog.xlsx.xlsx
+++ b/SSW695/product backlog.xlsx.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mahalidrisi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW695_Team7/SSW695/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19900" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="5" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sprint 4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint 3" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -79,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="50">
   <si>
     <t>User Story</t>
   </si>
@@ -108,100 +107,13 @@
     <t>Sonali</t>
   </si>
   <si>
-    <t>Pranay, Prateek</t>
-  </si>
-  <si>
-    <t>Maha, Rafif</t>
-  </si>
-  <si>
-    <t>Maha,Rafif</t>
-  </si>
-  <si>
-    <t>Maha,pranay</t>
-  </si>
-  <si>
-    <t>Setup web server</t>
-  </si>
-  <si>
-    <t>Create log file for api request and response</t>
-  </si>
-  <si>
-    <t>Finish design part and start work on api (ios)</t>
-  </si>
-  <si>
-    <t>Create and finish api methods</t>
-  </si>
-  <si>
-    <t>My feed Screen logic</t>
-  </si>
-  <si>
-    <t>My Subscription logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handle db exceptions - connection </t>
-  </si>
-  <si>
-    <t>Handle db exceptions - data type</t>
-  </si>
-  <si>
-    <t>Handle db exceptions - empty list</t>
-  </si>
-  <si>
-    <t>Handle web scraping exceptions - connection</t>
-  </si>
-  <si>
-    <t>Handle db exceptions - add only new events</t>
-  </si>
-  <si>
     <t>Maha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetch categories </t>
-  </si>
-  <si>
-    <t>fetch full description</t>
-  </si>
-  <si>
-    <t>Cron job - add new events and delete past event</t>
-  </si>
-  <si>
-    <t>Fill -  last updated table</t>
-  </si>
-  <si>
-    <t>Fill db - event table</t>
-  </si>
-  <si>
-    <t>Fill db - event category table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill db - category table </t>
   </si>
   <si>
     <t>Rafif</t>
   </si>
   <si>
-    <t>Maha, Akshay,Rafif</t>
-  </si>
-  <si>
     <t>working</t>
-  </si>
-  <si>
-    <t>Login, Registration and forgot password done.</t>
-  </si>
-  <si>
-    <t>Maha, Rafif, Akshay</t>
-  </si>
-  <si>
-    <t>Pranay, Sonali</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>Finish api integration in ios</t>
-  </si>
-  <si>
-    <t>Start work on api in android</t>
   </si>
   <si>
     <t>Design feed page</t>
@@ -267,10 +179,55 @@
     <t xml:space="preserve">page navigation </t>
   </si>
   <si>
-    <t>Create db</t>
+    <t>Add functionality to registration page</t>
   </si>
   <si>
-    <t>Handle db exceptions</t>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Create database</t>
+  </si>
+  <si>
+    <t>Akshay, Rafif</t>
+  </si>
+  <si>
+    <t>Design database schema</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Fill database tables</t>
+  </si>
+  <si>
+    <t>Create database table - Users</t>
+  </si>
+  <si>
+    <t>Create database table - Maintenance</t>
+  </si>
+  <si>
+    <t>Create database table - Category</t>
+  </si>
+  <si>
+    <t>Create database table - Issues</t>
+  </si>
+  <si>
+    <t>Create database table - Issues_category</t>
+  </si>
+  <si>
+    <t>Design setting page</t>
+  </si>
+  <si>
+    <t>Add additional validations to registration page</t>
+  </si>
+  <si>
+    <t>Create AWS instance</t>
+  </si>
+  <si>
+    <t>Design web portal</t>
+  </si>
+  <si>
+    <t>Deploy flask on AWS</t>
   </si>
 </sst>
 </file>
@@ -280,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d\-yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -330,8 +287,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +320,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6D2C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6D2C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -374,8 +368,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,8 +423,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,32 +437,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,12 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,11 +478,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -505,6 +560,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -519,10 +576,20 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF6D2C7"/>
+      <color rgb="FFFAB5AE"/>
+      <color rgb="FFFF8581"/>
+      <color rgb="FFFF7E79"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -552,6 +619,62 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1025" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1711,6 +1834,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1979,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1994,436 +2173,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="35">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="33">
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="33">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F25" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
+        <v>25</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="33">
+        <v>26</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="33">
+        <v>27</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="F28" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="33">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F29" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="33">
+        <v>29</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="F30" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="33">
+        <v>30</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="33">
+        <v>31</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="F32" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
         <v>32</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <v>18</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>19</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
         <v>33</v>
       </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,7 +2782,7 @@
   <dimension ref="A1:F1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2451,243 +2796,253 @@
     <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="C10" s="20"/>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="33"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
@@ -2712,33 +3067,33 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -8603,10 +8958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8619,63 +8974,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>51</v>
+      <c r="B2" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>54</v>
+      <c r="B4" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -8683,11 +9038,11 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>55</v>
+      <c r="B5" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -8695,11 +9050,11 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>56</v>
+      <c r="B6" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8707,11 +9062,11 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>57</v>
+      <c r="B7" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8719,11 +9074,11 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>58</v>
+      <c r="B8" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8731,11 +9086,11 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>59</v>
+      <c r="B9" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8743,11 +9098,11 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>60</v>
+      <c r="B10" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8755,11 +9110,11 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>61</v>
+      <c r="B11" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -8770,10 +9125,16 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -8805,200 +9166,173 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9008,282 +9342,245 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="86.5" style="11" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="11"/>
-    <col min="6" max="6" width="54.6640625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="42" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="B10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="38" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="14"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SSW695/product backlog.xlsx.xlsx
+++ b/SSW695/product backlog.xlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW695_Team7/SSW695/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celestesakhile/Desktop/SSW695_Team7/SSW695/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19900" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="5" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="57">
   <si>
     <t>User Story</t>
   </si>
@@ -228,6 +228,27 @@
   </si>
   <si>
     <t>Deploy flask on AWS</t>
+  </si>
+  <si>
+    <t>Design changes in mobile app</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Making design changes to make the application more user friendly and appealing</t>
+  </si>
+  <si>
+    <t>Login API Connection from Android side</t>
+  </si>
+  <si>
+    <t>Registration API Connection from Android side</t>
+  </si>
+  <si>
+    <t>Will start working when API is set up on the server side</t>
   </si>
 </sst>
 </file>
@@ -478,10 +499,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -544,6 +561,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2193,582 +2214,582 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="34">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="45" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="33">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="33">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="33">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="33">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="33">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="33">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="33">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="33">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2797,22 +2818,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3067,33 +3088,33 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -9345,7 +9366,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9355,7 +9376,7 @@
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -9558,29 +9579,55 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SSW695/product backlog.xlsx.xlsx
+++ b/SSW695/product backlog.xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="5" r:id="rId1"/>
@@ -414,7 +414,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,8 +448,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,8 +573,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -583,6 +594,10 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -599,6 +614,10 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2177,16 +2196,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
@@ -2416,178 +2435,178 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>23</v>
+      <c r="B14" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>23</v>
+      <c r="B15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>23</v>
+      <c r="B16" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>23</v>
+      <c r="B17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>23</v>
+      <c r="B18" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>23</v>
+      <c r="B19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>23</v>
+      <c r="B20" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25" t="s">
+      <c r="B21" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F21" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="44" t="s">
+      <c r="B22" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2595,17 +2614,17 @@
       <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="32" t="s">
+      <c r="B23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2613,17 +2632,17 @@
       <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="B24" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2632,16 +2651,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="32"/>
       <c r="D25" s="29" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2649,17 +2668,17 @@
       <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="41" t="s">
+      <c r="B26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2667,17 +2686,17 @@
       <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="41" t="s">
+      <c r="B27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2685,17 +2704,17 @@
       <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="41" t="s">
+      <c r="B28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2703,17 +2722,17 @@
       <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="32" t="s">
+      <c r="B29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2721,15 +2740,15 @@
       <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>7</v>
+      <c r="B30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="F30" s="37" t="s">
         <v>38</v>
@@ -2739,14 +2758,14 @@
       <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="40" t="s">
+      <c r="B31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="37" t="s">
@@ -2757,39 +2776,29 @@
       <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>7</v>
+      <c r="B32" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="F32" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>33</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9365,8 +9374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SSW695/product backlog.xlsx.xlsx
+++ b/SSW695/product backlog.xlsx.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="59">
   <si>
     <t>User Story</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Design history page</t>
   </si>
   <si>
-    <t>sprint 1</t>
-  </si>
-  <si>
     <t>Design homepage</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>add functionality feed page</t>
   </si>
   <si>
-    <t>sprint 2</t>
-  </si>
-  <si>
     <t>add functionality to history page</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Add functionality to registration page</t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>Create database</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
   </si>
   <si>
     <t>Design database schema</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
   </si>
   <si>
     <t>Fill database tables</t>
@@ -429,15 +417,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,9 +440,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,9 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,17 +470,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -968,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -980,10 +953,9 @@
     <col min="2" max="2" width="42.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08203125" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -996,620 +968,509 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="D22" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="14">
-        <v>33</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
-        <v>34</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A36" s="14">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A37" s="14">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>35</v>
+      <c r="C37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1636,29 +1497,29 @@
     <col min="5" max="5" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>43</v>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1666,14 +1527,14 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>44</v>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1681,14 +1542,14 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1696,143 +1557,143 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="30"/>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="30"/>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="30"/>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="30"/>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38" x14ac:dyDescent="0.45">
@@ -1840,16 +1701,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="38" x14ac:dyDescent="0.45">
@@ -1857,92 +1718,92 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="38" x14ac:dyDescent="0.45">
+      <c r="A18" s="24">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A16" s="29">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.45">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="38" x14ac:dyDescent="0.45">
-      <c r="A18" s="29">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="29">
-        <v>18</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A20" s="29">
-        <v>19</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>56</v>
+      <c r="C20" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SSW695/product backlog.xlsx.xlsx
+++ b/SSW695/product backlog.xlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stevens data\3rd SEM\SSW_Capstone\SSW695_Team7\SSW695\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSW-695\SSW695_Team7\SSW695\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16536" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="product backlog" sheetId="5" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
   <si>
     <t>User Story</t>
   </si>
@@ -211,9 +211,6 @@
     <t>In progress</t>
   </si>
   <si>
-    <t>Pranay, Sonali, Akshay</t>
-  </si>
-  <si>
     <t>Testing Login, Registration API calls with SQLITE db on localhost with Postman</t>
   </si>
   <si>
@@ -230,6 +227,21 @@
   </si>
   <si>
     <t>Design login page</t>
+  </si>
+  <si>
+    <t>Pranay, Sonali</t>
+  </si>
+  <si>
+    <t>prof want to do items</t>
+  </si>
+  <si>
+    <t>rafir and prateek what?</t>
+  </si>
+  <si>
+    <t>API for All issues(Feed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonali </t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,6 +494,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,21 +960,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -969,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -997,7 +1016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1011,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1025,12 +1044,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>50</v>
@@ -1039,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1053,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1067,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1081,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1095,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1109,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1123,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1137,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1151,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1165,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1179,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1193,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1207,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1221,7 +1240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1235,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1249,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -1263,7 +1282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -1277,7 +1296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -1291,7 +1310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -1305,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -1319,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -1333,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -1347,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -1361,7 +1380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -1375,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -1389,7 +1408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -1403,12 +1422,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>49</v>
@@ -1417,12 +1436,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>49</v>
@@ -1431,12 +1450,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>49</v>
@@ -1445,31 +1464,45 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D37" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A38" s="21">
+        <v>37</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1482,22 +1515,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="47.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
     <col min="5" max="5" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1529,7 +1562,7 @@
       </c>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1540,11 +1573,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1559,7 +1592,7 @@
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1574,7 +1607,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1589,7 +1622,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1604,7 +1637,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1619,7 +1652,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1634,7 +1667,7 @@
       </c>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1649,7 +1682,7 @@
       </c>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1664,7 +1697,7 @@
       </c>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1679,7 +1712,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="55.8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1696,7 +1729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1713,7 +1746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1730,12 +1763,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>49</v>
@@ -1745,12 +1778,12 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A17" s="24">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>49</v>
@@ -1760,12 +1793,12 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="38" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>49</v>
@@ -1775,35 +1808,60 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,7 +1874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
